--- a/static-data/RCUKRU.xlsx
+++ b/static-data/RCUKRU.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\social-payments-ua\no-git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\social-payments-ua\static-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="27870" windowHeight="12885"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="RCUKRU" sheetId="1" r:id="rId1"/>
@@ -24,18 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="902">
   <si>
-    <t>MFO</t>
-  </si>
-  <si>
-    <t>IKOD</t>
-  </si>
-  <si>
-    <t>FULLNAME</t>
-  </si>
-  <si>
-    <t>SHORTNAME</t>
-  </si>
-  <si>
     <t>00032106</t>
   </si>
   <si>
@@ -2728,6 +2716,18 @@
   </si>
   <si>
     <t>ФІЛІЯ ПАТ "ПУМБ" В М.КИЇВ</t>
+  </si>
+  <si>
+    <t>mfo</t>
+  </si>
+  <si>
+    <t>edrpou</t>
+  </si>
+  <si>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -3229,9 +3229,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3555,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3568,17 +3569,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>899</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>900</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3586,13 +3587,13 @@
         <v>300001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,13 +3601,13 @@
         <v>322313</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,13 +3615,13 @@
         <v>300012</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3628,13 +3629,13 @@
         <v>300023</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,13 +3643,13 @@
         <v>300465</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3656,13 +3657,13 @@
         <v>300056</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3670,13 +3671,13 @@
         <v>300142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3684,13 +3685,13 @@
         <v>300175</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3698,13 +3699,13 @@
         <v>320735</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3712,13 +3713,13 @@
         <v>300272</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3726,13 +3727,13 @@
         <v>300216</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3740,13 +3741,13 @@
         <v>300335</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3754,13 +3755,13 @@
         <v>300249</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3768,13 +3769,13 @@
         <v>321767</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3782,13 +3783,13 @@
         <v>320940</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3796,13 +3797,13 @@
         <v>305299</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,13 +3811,13 @@
         <v>305062</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3824,13 +3825,13 @@
         <v>353100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3838,13 +3839,13 @@
         <v>334594</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3852,13 +3853,13 @@
         <v>334828</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3866,13 +3867,13 @@
         <v>321712</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3880,13 +3881,13 @@
         <v>322294</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3894,13 +3895,13 @@
         <v>334840</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3908,13 +3909,13 @@
         <v>380537</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3922,13 +3923,13 @@
         <v>300788</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3936,13 +3937,13 @@
         <v>325268</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3950,13 +3951,13 @@
         <v>325990</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3964,13 +3965,13 @@
         <v>307770</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3978,13 +3979,13 @@
         <v>325213</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3992,13 +3993,13 @@
         <v>351663</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4006,13 +4007,13 @@
         <v>328209</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,13 +4021,13 @@
         <v>328180</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,13 +4035,13 @@
         <v>328210</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4048,13 +4049,13 @@
         <v>331489</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4062,13 +4063,13 @@
         <v>334851</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4076,13 +4077,13 @@
         <v>328685</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4090,13 +4091,13 @@
         <v>351607</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4104,13 +4105,13 @@
         <v>351254</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4118,13 +4119,13 @@
         <v>351005</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4132,13 +4133,13 @@
         <v>312248</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4146,13 +4147,13 @@
         <v>380838</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4160,13 +4161,13 @@
         <v>328599</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4174,13 +4175,13 @@
         <v>322432</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4188,13 +4189,13 @@
         <v>322335</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4202,13 +4203,13 @@
         <v>331100</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4216,13 +4217,13 @@
         <v>322465</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,13 +4231,13 @@
         <v>313582</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,13 +4245,13 @@
         <v>351931</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4258,13 +4259,13 @@
         <v>322625</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4272,13 +4273,13 @@
         <v>380764</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4286,13 +4287,13 @@
         <v>300379</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4300,13 +4301,13 @@
         <v>380292</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4314,13 +4315,13 @@
         <v>305880</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4328,13 +4329,13 @@
         <v>328384</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4342,13 +4343,13 @@
         <v>304706</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4356,13 +4357,13 @@
         <v>320702</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4370,13 +4371,13 @@
         <v>320843</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4384,13 +4385,13 @@
         <v>380601</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,13 +4399,13 @@
         <v>300647</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4412,13 +4413,13 @@
         <v>300506</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4426,13 +4427,13 @@
         <v>300539</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4440,13 +4441,13 @@
         <v>300528</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4454,13 +4455,13 @@
         <v>300584</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4468,13 +4469,13 @@
         <v>320984</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4482,13 +4483,13 @@
         <v>320627</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4496,13 +4497,13 @@
         <v>300669</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4510,13 +4511,13 @@
         <v>300852</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4524,13 +4525,13 @@
         <v>300885</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4538,13 +4539,13 @@
         <v>300904</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4552,13 +4553,13 @@
         <v>307123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4566,13 +4567,13 @@
         <v>335902</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4580,13 +4581,13 @@
         <v>820172</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4594,13 +4595,13 @@
         <v>300926</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4608,13 +4609,13 @@
         <v>300164</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4622,13 +4623,13 @@
         <v>300131</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,13 +4637,13 @@
         <v>300119</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4650,13 +4651,13 @@
         <v>300205</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4664,13 +4665,13 @@
         <v>335946</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4678,13 +4679,13 @@
         <v>305987</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4692,13 +4693,13 @@
         <v>334992</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4706,13 +4707,13 @@
         <v>339500</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4720,13 +4721,13 @@
         <v>321477</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4734,13 +4735,13 @@
         <v>325365</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4748,13 +4749,13 @@
         <v>313849</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4762,13 +4763,13 @@
         <v>328168</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4776,13 +4777,13 @@
         <v>351588</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4790,13 +4791,13 @@
         <v>351629</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4804,13 +4805,13 @@
         <v>322324</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4818,13 +4819,13 @@
         <v>321723</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4832,13 +4833,13 @@
         <v>353489</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4846,13 +4847,13 @@
         <v>353575</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,13 +4861,13 @@
         <v>336310</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,13 +4875,13 @@
         <v>320371</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4888,13 +4889,13 @@
         <v>300896</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4902,13 +4903,13 @@
         <v>300614</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4916,13 +4917,13 @@
         <v>334969</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4930,13 +4931,13 @@
         <v>304988</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4944,13 +4945,13 @@
         <v>300670</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4958,13 +4959,13 @@
         <v>322498</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4972,13 +4973,13 @@
         <v>328760</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4986,13 +4987,13 @@
         <v>397133</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,13 +5001,13 @@
         <v>300498</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -5014,13 +5015,13 @@
         <v>320995</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5028,13 +5029,13 @@
         <v>322539</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5042,13 +5043,13 @@
         <v>320854</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -5056,13 +5057,13 @@
         <v>322540</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,13 +5071,13 @@
         <v>322302</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,13 +5085,13 @@
         <v>322001</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5098,13 +5099,13 @@
         <v>322948</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -5112,13 +5113,13 @@
         <v>300658</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -5126,13 +5127,13 @@
         <v>322799</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -5140,13 +5141,13 @@
         <v>322830</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,13 +5155,13 @@
         <v>305749</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5168,13 +5169,13 @@
         <v>300346</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5182,13 +5183,13 @@
         <v>303484</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5196,13 +5197,13 @@
         <v>320478</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5210,13 +5211,13 @@
         <v>306704</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -5224,13 +5225,13 @@
         <v>319092</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -5238,13 +5239,13 @@
         <v>300120</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5252,13 +5253,13 @@
         <v>306500</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5266,13 +5267,13 @@
         <v>300863</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5280,13 +5281,13 @@
         <v>300302</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -5294,13 +5295,13 @@
         <v>303020</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5308,13 +5309,13 @@
         <v>305006</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5322,13 +5323,13 @@
         <v>313377</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5336,13 +5337,13 @@
         <v>315438</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5350,13 +5351,13 @@
         <v>321024</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5364,13 +5365,13 @@
         <v>325622</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5378,13 +5379,13 @@
         <v>328027</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5392,13 +5393,13 @@
         <v>351447</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5406,13 +5407,13 @@
         <v>352297</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5420,13 +5421,13 @@
         <v>356185</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5434,13 +5435,13 @@
         <v>399012</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5448,13 +5449,13 @@
         <v>399045</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5462,13 +5463,13 @@
         <v>399056</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5476,10 +5477,10 @@
         <v>399119</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5487,13 +5488,13 @@
         <v>302429</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,13 +5502,13 @@
         <v>303547</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5515,13 +5516,13 @@
         <v>305589</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5529,13 +5530,13 @@
         <v>305675</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5543,13 +5544,13 @@
         <v>311324</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5557,13 +5558,13 @@
         <v>312226</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5571,13 +5572,13 @@
         <v>313979</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5585,13 +5586,13 @@
         <v>315609</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5599,13 +5600,13 @@
         <v>323389</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5613,13 +5614,13 @@
         <v>325718</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5627,13 +5628,13 @@
         <v>326739</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5641,13 +5642,13 @@
         <v>328618</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5655,13 +5656,13 @@
         <v>331649</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5669,13 +5670,13 @@
         <v>333539</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5683,13 +5684,13 @@
         <v>335957</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5697,13 +5698,13 @@
         <v>336688</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5711,13 +5712,13 @@
         <v>338879</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,13 +5726,13 @@
         <v>351618</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,13 +5740,13 @@
         <v>352639</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5753,13 +5754,13 @@
         <v>353649</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5767,13 +5768,13 @@
         <v>354789</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5781,13 +5782,13 @@
         <v>356271</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5795,13 +5796,13 @@
         <v>380333</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5809,13 +5810,13 @@
         <v>302076</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5823,13 +5824,13 @@
         <v>303398</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5837,13 +5838,13 @@
         <v>304665</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5851,13 +5852,13 @@
         <v>305482</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,13 +5866,13 @@
         <v>311647</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5879,13 +5880,13 @@
         <v>312356</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5893,13 +5894,13 @@
         <v>313957</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5907,13 +5908,13 @@
         <v>315784</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,13 +5922,13 @@
         <v>323475</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5935,13 +5936,13 @@
         <v>324805</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5949,13 +5950,13 @@
         <v>325796</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,13 +5964,13 @@
         <v>326461</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5977,13 +5978,13 @@
         <v>328845</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5991,13 +5992,13 @@
         <v>331467</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -6005,13 +6006,13 @@
         <v>333368</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -6019,13 +6020,13 @@
         <v>335106</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -6033,13 +6034,13 @@
         <v>336503</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -6047,13 +6048,13 @@
         <v>337568</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -6061,13 +6062,13 @@
         <v>338545</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -6075,13 +6076,13 @@
         <v>351823</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -6089,13 +6090,13 @@
         <v>352457</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -6103,13 +6104,13 @@
         <v>353553</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -6117,13 +6118,13 @@
         <v>354507</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -6131,13 +6132,13 @@
         <v>356334</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -6145,13 +6146,13 @@
         <v>305653</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,13 +6160,13 @@
         <v>325570</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -6173,13 +6174,13 @@
         <v>328351</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -6187,13 +6188,13 @@
         <v>350589</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -6201,13 +6202,13 @@
         <v>380805</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,13 +6216,13 @@
         <v>300711</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -6229,13 +6230,13 @@
         <v>302689</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -6243,13 +6244,13 @@
         <v>304795</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -6257,13 +6258,13 @@
         <v>305750</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -6271,13 +6272,13 @@
         <v>311744</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -6285,13 +6286,13 @@
         <v>312378</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -6299,13 +6300,13 @@
         <v>313399</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -6313,13 +6314,13 @@
         <v>315405</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -6327,13 +6328,13 @@
         <v>320649</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -6341,13 +6342,13 @@
         <v>321842</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -6355,13 +6356,13 @@
         <v>323583</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -6369,13 +6370,13 @@
         <v>324935</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -6383,13 +6384,13 @@
         <v>325321</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -6397,13 +6398,13 @@
         <v>326610</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -6411,13 +6412,13 @@
         <v>331401</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -6425,13 +6426,13 @@
         <v>333391</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6439,13 +6440,13 @@
         <v>335429</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -6453,13 +6454,13 @@
         <v>335496</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6467,13 +6468,13 @@
         <v>335548</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -6481,13 +6482,13 @@
         <v>336677</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -6495,13 +6496,13 @@
         <v>337546</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -6509,13 +6510,13 @@
         <v>338783</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -6523,13 +6524,13 @@
         <v>352479</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -6537,13 +6538,13 @@
         <v>353586</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -6551,13 +6552,13 @@
         <v>354347</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -6565,13 +6566,13 @@
         <v>356282</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -6579,13 +6580,13 @@
         <v>380593</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -6593,13 +6594,13 @@
         <v>802015</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6607,13 +6608,13 @@
         <v>803014</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6621,13 +6622,13 @@
         <v>804013</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6635,13 +6636,13 @@
         <v>811039</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6649,13 +6650,13 @@
         <v>812016</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6663,13 +6664,13 @@
         <v>813015</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6677,13 +6678,13 @@
         <v>815013</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6691,13 +6692,13 @@
         <v>820019</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6705,13 +6706,13 @@
         <v>821018</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6719,13 +6720,13 @@
         <v>823016</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6733,13 +6734,13 @@
         <v>824026</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6747,13 +6748,13 @@
         <v>824509</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6761,13 +6762,13 @@
         <v>825014</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6775,13 +6776,13 @@
         <v>826013</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6789,13 +6790,13 @@
         <v>828011</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -6803,13 +6804,13 @@
         <v>831019</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -6817,13 +6818,13 @@
         <v>833017</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -6831,13 +6832,13 @@
         <v>834016</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -6845,13 +6846,13 @@
         <v>836014</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -6859,13 +6860,13 @@
         <v>837013</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -6873,13 +6874,13 @@
         <v>838012</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -6887,13 +6888,13 @@
         <v>851011</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -6901,13 +6902,13 @@
         <v>852010</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6915,13 +6916,13 @@
         <v>853592</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6929,13 +6930,13 @@
         <v>854018</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -6943,13 +6944,13 @@
         <v>856135</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -6957,13 +6958,13 @@
         <v>322669</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -6971,13 +6972,13 @@
         <v>322904</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -6985,13 +6986,13 @@
         <v>303440</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6999,13 +7000,13 @@
         <v>328704</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -7013,13 +7014,13 @@
         <v>351533</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -7027,13 +7028,13 @@
         <v>384436</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -7041,13 +7042,13 @@
         <v>805012</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -7055,13 +7056,13 @@
         <v>377777</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -7069,13 +7070,13 @@
         <v>380980</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -7083,13 +7084,13 @@
         <v>380117</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -7097,13 +7098,13 @@
         <v>380106</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -7111,13 +7112,13 @@
         <v>380883</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -7125,13 +7126,13 @@
         <v>380377</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -7139,13 +7140,13 @@
         <v>380399</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -7153,13 +7154,13 @@
         <v>380388</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -7167,13 +7168,13 @@
         <v>380054</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
@@ -7181,13 +7182,13 @@
         <v>380355</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
@@ -7195,13 +7196,13 @@
         <v>380281</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -7209,13 +7210,13 @@
         <v>380775</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -7223,13 +7224,13 @@
         <v>380913</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -7237,13 +7238,13 @@
         <v>307305</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -7251,13 +7252,13 @@
         <v>380236</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -7265,13 +7266,13 @@
         <v>380418</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -7279,13 +7280,13 @@
         <v>339339</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -7293,13 +7294,13 @@
         <v>380269</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -7307,13 +7308,13 @@
         <v>307350</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -7321,13 +7322,13 @@
         <v>380322</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
@@ -7335,13 +7336,13 @@
         <v>380366</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -7349,13 +7350,13 @@
         <v>380430</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -7363,13 +7364,13 @@
         <v>380441</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -7377,13 +7378,13 @@
         <v>380667</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -7391,10 +7392,10 @@
         <v>399120</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -7402,13 +7403,13 @@
         <v>397003</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -7416,13 +7417,13 @@
         <v>339555</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -7430,13 +7431,13 @@
         <v>380474</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -7444,13 +7445,13 @@
         <v>313009</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -7458,13 +7459,13 @@
         <v>380515</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -7472,13 +7473,13 @@
         <v>380526</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -7486,13 +7487,13 @@
         <v>380548</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -7500,13 +7501,13 @@
         <v>380582</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -7514,13 +7515,13 @@
         <v>307394</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
@@ -7528,13 +7529,13 @@
         <v>380612</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -7542,13 +7543,13 @@
         <v>380634</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -7556,13 +7557,13 @@
         <v>380645</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -7570,13 +7571,13 @@
         <v>377090</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -7584,13 +7585,13 @@
         <v>380690</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -7598,13 +7599,13 @@
         <v>380689</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -7612,13 +7613,13 @@
         <v>380708</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -7626,13 +7627,13 @@
         <v>380719</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -7640,13 +7641,13 @@
         <v>380731</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -7654,13 +7655,13 @@
         <v>319111</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -7668,13 +7669,13 @@
         <v>344443</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -7682,13 +7683,13 @@
         <v>380742</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -7696,13 +7697,13 @@
         <v>380786</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -7710,13 +7711,13 @@
         <v>380797</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -7724,13 +7725,13 @@
         <v>380816</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -7738,13 +7739,13 @@
         <v>380827</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -7752,13 +7753,13 @@
         <v>307424</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -7766,13 +7767,13 @@
         <v>307435</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -7780,13 +7781,13 @@
         <v>380861</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
@@ -7794,13 +7795,13 @@
         <v>380894</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -7808,13 +7809,13 @@
         <v>380902</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
@@ -7822,13 +7823,13 @@
         <v>380935</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -7836,13 +7837,13 @@
         <v>380946</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -7850,13 +7851,13 @@
         <v>380957</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -7864,13 +7865,13 @@
         <v>380968</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7878,13 +7879,13 @@
         <v>339016</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7892,13 +7893,13 @@
         <v>377120</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7906,13 +7907,13 @@
         <v>339038</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7920,13 +7921,13 @@
         <v>899998</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7934,13 +7935,13 @@
         <v>339050</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7948,13 +7949,13 @@
         <v>380010</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7962,16 +7963,17 @@
         <v>339072</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>